--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121319.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121319.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
